--- a/NiTiErp/wwwroot/templates/TienAn.xlsx
+++ b/NiTiErp/wwwroot/templates/TienAn.xlsx
@@ -54,16 +54,16 @@
     <t>Phòng</t>
   </si>
   <si>
-    <t>BẢNG CẤP TIỀN AN GIỮA CA</t>
-  </si>
-  <si>
     <t>Số ngày</t>
   </si>
   <si>
     <t>Đơn giá</t>
   </si>
   <si>
-    <t xml:space="preserve">Tổng cộng:    </t>
+    <t>BẢNG CẤP TIỀN ĂN GIỮA CA</t>
+  </si>
+  <si>
+    <t>Tổng cộng:</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -496,25 +496,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,16 +517,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,7 +834,7 @@
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -849,30 +852,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C4" s="11"/>
@@ -881,26 +884,26 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
@@ -912,28 +915,28 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:9" s="8" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -948,23 +951,23 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="25">
+      <c r="E11" s="29"/>
+      <c r="F11" s="36">
         <f>SUM(F9:F10)</f>
         <v>0</v>
       </c>
@@ -980,42 +983,42 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/NiTiErp/wwwroot/templates/TienAn.xlsx
+++ b/NiTiErp/wwwroot/templates/TienAn.xlsx
@@ -532,6 +532,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,9 +549,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -823,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -852,30 +852,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C4" s="11"/>
@@ -884,26 +884,26 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="2:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
@@ -967,7 +967,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="29"/>
-      <c r="F11" s="36">
+      <c r="F11" s="31">
         <f>SUM(F9:F10)</f>
         <v>0</v>
       </c>
@@ -989,36 +989,36 @@
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/NiTiErp/wwwroot/templates/TienAn.xlsx
+++ b/NiTiErp/wwwroot/templates/TienAn.xlsx
@@ -823,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,7 +834,7 @@
   <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
